--- a/wordCode.xlsx
+++ b/wordCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Compilers Principles\Coding\Experiment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Compilers Principles\Coding\complier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74CA602-3D47-4A13-BC9A-7B1ED586D16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215FADA3-13FC-4B39-B808-7640431D3BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>and</t>
   </si>
@@ -330,6 +330,18 @@
   </si>
   <si>
     <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1337,9 +1349,33 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B83">
+      <c r="B86">
         <v>-1</v>
       </c>
     </row>
